--- a/thesession/data/reconciled/reconciledEntries/frequently_occurring_artists_of_recordings_withReconciledWikiID.xlsx
+++ b/thesession/data/reconciled/reconciledEntries/frequently_occurring_artists_of_recordings_withReconciledWikiID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29620" windowHeight="13660"/>
+    <workbookView windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="topFrequentlyOccuringArtists" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="185">
   <si>
     <t>Artist</t>
   </si>
@@ -579,6 +579,12 @@
   </si>
   <si>
     <t>http://www.wikidata.org/entity/Q2080198</t>
+  </si>
+  <si>
+    <t>Adrienne Young</t>
+  </si>
+  <si>
+    <t>http://www.wikidata.org/entity/Q4685726</t>
   </si>
 </sst>
 </file>
@@ -1755,12 +1761,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1954,7 +1960,6 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13"/>
       <c r="F13" t="s">
         <v>31</v>
       </c>
@@ -2596,8 +2601,16 @@
       <c r="A95" t="s">
         <v>181</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2689,6 +2702,8 @@
     <hyperlink ref="B14" r:id="rId82" display="http://www.wikidata.org/entity/Q7490578"/>
     <hyperlink ref="B15" r:id="rId83" display="http://www.wikidata.org/entity/Q1271501"/>
     <hyperlink ref="B16" r:id="rId84" display="http://www.wikidata.org/entity/Q1179823"/>
+    <hyperlink ref="B95" r:id="rId85" display="http://www.wikidata.org/entity/Q2080198"/>
+    <hyperlink ref="B96" r:id="rId86" display="http://www.wikidata.org/entity/Q4685726"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/thesession/data/reconciled/reconciledEntries/frequently_occurring_artists_of_recordings_withReconciledWikiID.xlsx
+++ b/thesession/data/reconciled/reconciledEntries/frequently_occurring_artists_of_recordings_withReconciledWikiID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13040"/>
+    <workbookView windowHeight="19100"/>
   </bookViews>
   <sheets>
     <sheet name="topFrequentlyOccuringArtists" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="188">
   <si>
     <t>Artist</t>
   </si>
@@ -53,6 +53,9 @@
     <t>work period (start)</t>
   </si>
   <si>
+    <t>Is the artist included in MusicBrainz?</t>
+  </si>
+  <si>
     <t>Matt Cunningham</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t>musical group</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Battlefield Band</t>
   </si>
   <si>
@@ -75,6 +81,9 @@
   </si>
   <si>
     <t>http://www.wikidata.org/entity/Q896059</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>Jimmy Shand</t>
@@ -1761,25 +1770,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96:B96"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.09375" customWidth="1"/>
     <col min="2" max="2" width="32.8046875" customWidth="1"/>
     <col min="3" max="3" width="11.8515625" customWidth="1"/>
     <col min="5" max="5" width="13.40625" customWidth="1"/>
     <col min="6" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="7" width="11.3203125" customWidth="1"/>
+    <col min="7" max="7" width="16.796875" customWidth="1"/>
+    <col min="8" max="8" width="30.078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1801,116 +1811,134 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1963</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4">
         <v>1969</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>1970</v>
       </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3">
         <v>2950</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>1987</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3">
         <v>26463</v>
       </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1985</v>
@@ -1918,16 +1946,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F11" s="3">
         <v>20143</v>
@@ -1935,55 +1963,55 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>1968</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <v>1990</v>
@@ -1991,30 +2019,30 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>1974</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>1989</v>
@@ -2022,595 +2050,595 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2696,14 +2724,17 @@
     <hyperlink ref="A93" r:id="rId76" display="Cara"/>
     <hyperlink ref="A94" r:id="rId77" display="Breabach"/>
     <hyperlink ref="A95" r:id="rId78" display="Willie Clancy"/>
-    <hyperlink ref="B3" r:id="rId79" display="http://www.wikidata.org/entity/Q662577"/>
+    <hyperlink ref="B3" r:id="rId79" display="http://www.wikidata.org/entity/Q662577" tooltip="http://www.wikidata.org/entity/Q662577"/>
     <hyperlink ref="B6" r:id="rId80" display="http://www.wikidata.org/entity/Q6201257" tooltip="http://www.wikidata.org/entity/Q6201257"/>
     <hyperlink ref="B20" r:id="rId81" display="http://www.wikidata.org/entity/Q1413921"/>
     <hyperlink ref="B14" r:id="rId82" display="http://www.wikidata.org/entity/Q7490578"/>
     <hyperlink ref="B15" r:id="rId83" display="http://www.wikidata.org/entity/Q1271501"/>
     <hyperlink ref="B16" r:id="rId84" display="http://www.wikidata.org/entity/Q1179823"/>
     <hyperlink ref="B95" r:id="rId85" display="http://www.wikidata.org/entity/Q2080198"/>
-    <hyperlink ref="B96" r:id="rId86" display="http://www.wikidata.org/entity/Q4685726"/>
+    <hyperlink ref="B96" r:id="rId86" display="http://www.wikidata.org/entity/Q4685726" tooltip="http://www.wikidata.org/entity/Q4685726"/>
+    <hyperlink ref="B8" r:id="rId87" display="http://www.wikidata.org/entity/Q6968206" tooltip="http://www.wikidata.org/entity/Q6968206"/>
+    <hyperlink ref="B4" r:id="rId88" display="http://www.wikidata.org/entity/Q811015"/>
+    <hyperlink ref="B5" r:id="rId89" display="http://www.wikidata.org/entity/Q896059"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/thesession/data/reconciled/reconciledEntries/frequently_occurring_artists_of_recordings_withReconciledWikiID.xlsx
+++ b/thesession/data/reconciled/reconciledEntries/frequently_occurring_artists_of_recordings_withReconciledWikiID.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19100"/>
+    <workbookView windowWidth="28000" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="topFrequentlyOccuringArtists" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">topFrequentlyOccuringArtists!$A$1:$G$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">topFrequentlyOccuringArtists!$A$1:$G$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -625,6 +625,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -635,14 +643,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1079,28 +1079,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1224,14 +1224,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1775,7 +1778,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1841,7 +1844,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
@@ -1858,7 +1861,7 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
@@ -1884,7 +1887,7 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>2950</v>
       </c>
     </row>
@@ -1909,7 +1912,7 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
@@ -1918,7 +1921,7 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>26463</v>
       </c>
       <c r="H8" t="s">
@@ -1957,7 +1960,7 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>20143</v>
       </c>
     </row>
@@ -1996,7 +1999,7 @@
       <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C14" t="s">
@@ -2007,7 +2010,7 @@
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C15" t="s">
@@ -2021,7 +2024,7 @@
       <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C16" t="s">
@@ -2074,7 +2077,7 @@
       <c r="A20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2629,7 +2632,7 @@
       <c r="A95" t="s">
         <v>184</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2637,12 +2640,12 @@
       <c r="A96" t="s">
         <v>186</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G95">
+  <autoFilter ref="A1:G96">
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/thesession/data/reconciled/reconciledEntries/frequently_occurring_artists_of_recordings_withReconciledWikiID.xlsx
+++ b/thesession/data/reconciled/reconciledEntries/frequently_occurring_artists_of_recordings_withReconciledWikiID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13020"/>
+    <workbookView windowWidth="29400" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="topFrequentlyOccuringArtists" sheetId="1" r:id="rId1"/>
@@ -1776,9 +1776,9 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
